--- a/data/trans_orig/P29-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P29-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>138749</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>120311</v>
+        <v>118349</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>159521</v>
+        <v>160432</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2808316644583656</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.243513297746335</v>
+        <v>0.2395422009010035</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3228749484270894</v>
+        <v>0.3247189579332105</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>174</v>
@@ -765,19 +765,19 @@
         <v>171189</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>152072</v>
+        <v>150726</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>192981</v>
+        <v>191565</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3661877492254836</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3252964091988416</v>
+        <v>0.3224154825369605</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4128041892292337</v>
+        <v>0.4097753305044963</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>313</v>
@@ -786,19 +786,19 @@
         <v>309938</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>281369</v>
+        <v>282582</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>340742</v>
+        <v>340639</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3223301988666668</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2926192755815273</v>
+        <v>0.2938805449014829</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3543660291877579</v>
+        <v>0.3542594610219258</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>74602</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>59488</v>
+        <v>60681</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>92300</v>
+        <v>92216</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1509971372018405</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1204049653860993</v>
+        <v>0.122819925509426</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1868188112563491</v>
+        <v>0.186647486059374</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>119</v>
@@ -836,19 +836,19 @@
         <v>109883</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>93738</v>
+        <v>93258</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>128827</v>
+        <v>130012</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2350491637866849</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.200513723763272</v>
+        <v>0.1994879908199389</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.275571299937875</v>
+        <v>0.2781065566497139</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>196</v>
@@ -857,19 +857,19 @@
         <v>184485</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>160623</v>
+        <v>160469</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>206863</v>
+        <v>207466</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1918616628749102</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1670458470267842</v>
+        <v>0.1668854563450418</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2151347867792563</v>
+        <v>0.2157613670931267</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>280713</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>259124</v>
+        <v>258368</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>302171</v>
+        <v>303048</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5681711983397939</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5244736854939824</v>
+        <v>0.5229443355993106</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6116023578286895</v>
+        <v>0.6133785357833927</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>196</v>
@@ -907,19 +907,19 @@
         <v>186417</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>164124</v>
+        <v>165623</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>205634</v>
+        <v>208375</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3987630869878315</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3510757139532866</v>
+        <v>0.3542825165179845</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4398698378933417</v>
+        <v>0.4457323779384934</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>479</v>
@@ -928,19 +928,19 @@
         <v>467130</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>437479</v>
+        <v>434507</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>496580</v>
+        <v>496573</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4858081382584231</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4549709786230191</v>
+        <v>0.4518802735201029</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5164350342665652</v>
+        <v>0.5164283663390784</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>116816</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>97181</v>
+        <v>95429</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>140750</v>
+        <v>137681</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.158827771894999</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1321305260799101</v>
+        <v>0.1297488942525617</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1913689035987642</v>
+        <v>0.1871968972978548</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>233</v>
@@ -1053,19 +1053,19 @@
         <v>250935</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>227787</v>
+        <v>228449</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>277839</v>
+        <v>276499</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4011782746009785</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3641716918407782</v>
+        <v>0.3652290170022311</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4441916064197766</v>
+        <v>0.442048532220449</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>338</v>
@@ -1074,19 +1074,19 @@
         <v>367750</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>335321</v>
+        <v>337767</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>401465</v>
+        <v>403395</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2702096224197094</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2463816444970757</v>
+        <v>0.2481790231471611</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.29498176157275</v>
+        <v>0.2963998935275094</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>116792</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>98449</v>
+        <v>97529</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>139871</v>
+        <v>137498</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.158795014886151</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1338553615696607</v>
+        <v>0.1326042135150429</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1901739424652776</v>
+        <v>0.1869477737545507</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>154</v>
@@ -1124,19 +1124,19 @@
         <v>156283</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>135343</v>
+        <v>136321</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>176824</v>
+        <v>179170</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2498554198312232</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2163784106815588</v>
+        <v>0.2179415875327709</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2826946634193938</v>
+        <v>0.2864455289925034</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>267</v>
@@ -1145,19 +1145,19 @@
         <v>273075</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>243275</v>
+        <v>244569</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>302380</v>
+        <v>305202</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2006454600020686</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1787495812722181</v>
+        <v>0.1797002696934071</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.222177444320007</v>
+        <v>0.2242512532477887</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>501881</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>475358</v>
+        <v>474309</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>526524</v>
+        <v>526362</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.68237721321885</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6463154662585731</v>
+        <v>0.6448895177345887</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7158823544863686</v>
+        <v>0.7156621773849988</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>204</v>
@@ -1195,19 +1195,19 @@
         <v>218276</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>192967</v>
+        <v>194145</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>243321</v>
+        <v>243508</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3489663055677983</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3085031026663476</v>
+        <v>0.3103863259525483</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3890068029813049</v>
+        <v>0.3893058612354319</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>689</v>
@@ -1216,19 +1216,19 @@
         <v>720157</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>682083</v>
+        <v>682710</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>754579</v>
+        <v>757567</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5291449175782221</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5011696456788114</v>
+        <v>0.5016304679099257</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5544374029892607</v>
+        <v>0.5566329469008052</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>127096</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>107640</v>
+        <v>107305</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>151720</v>
+        <v>150969</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1990021532166078</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1685383036876518</v>
+        <v>0.1680140437598042</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2375563278446164</v>
+        <v>0.2363802655643304</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>300</v>
@@ -1341,19 +1341,19 @@
         <v>323100</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>295818</v>
+        <v>296546</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>350142</v>
+        <v>348908</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4684341079680013</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4288807291271788</v>
+        <v>0.4299359790919197</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5076404678758981</v>
+        <v>0.5058521122304294</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>412</v>
@@ -1362,19 +1362,19 @@
         <v>450196</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>415415</v>
+        <v>414563</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>486602</v>
+        <v>486532</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3388978824481969</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3127158321778887</v>
+        <v>0.3120743833201439</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3663032707102462</v>
+        <v>0.3662508687062213</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>109781</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>89765</v>
+        <v>91712</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>128846</v>
+        <v>129883</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1718904170655116</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1405502984957907</v>
+        <v>0.1435982877417881</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2017413218567823</v>
+        <v>0.2033647891778815</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>141</v>
@@ -1412,19 +1412,19 @@
         <v>142374</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>121635</v>
+        <v>122143</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>165311</v>
+        <v>163251</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2064151811720832</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1763487264868704</v>
+        <v>0.1770844573734494</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2396707346208633</v>
+        <v>0.2366831199139535</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>249</v>
@@ -1433,19 +1433,19 @@
         <v>252155</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>223662</v>
+        <v>223539</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>282318</v>
+        <v>279239</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1898165277812727</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1683680444843718</v>
+        <v>0.1682751840336801</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2125231922938986</v>
+        <v>0.2102049090645977</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>401791</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>375835</v>
+        <v>374568</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>428641</v>
+        <v>424917</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6291074297178807</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5884666346952432</v>
+        <v>0.5864830331941028</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6711478260239044</v>
+        <v>0.6653180871324614</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>217</v>
@@ -1483,19 +1483,19 @@
         <v>224271</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>200328</v>
+        <v>198799</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>249573</v>
+        <v>250932</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3251507108599155</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2904387173403193</v>
+        <v>0.2882209678092862</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3618339604274625</v>
+        <v>0.363804422708516</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>610</v>
@@ -1504,19 +1504,19 @@
         <v>626061</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>592527</v>
+        <v>590741</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>668178</v>
+        <v>665163</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4712855897705304</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4460417995429601</v>
+        <v>0.4446969208138322</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5029900412036795</v>
+        <v>0.5007200371199689</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>125906</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>106700</v>
+        <v>106152</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>147800</v>
+        <v>146504</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.242525674629314</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.205529999909538</v>
+        <v>0.204474624388311</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2846974654502141</v>
+        <v>0.2822010830101296</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>255</v>
@@ -1629,19 +1629,19 @@
         <v>260453</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>237579</v>
+        <v>237424</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>283720</v>
+        <v>283634</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5051042202703099</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4607444917377405</v>
+        <v>0.4604435163223007</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5502268395701764</v>
+        <v>0.5500605983826774</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>369</v>
@@ -1650,19 +1650,19 @@
         <v>386359</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>356026</v>
+        <v>352541</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>417978</v>
+        <v>416965</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3733702424760843</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3440563274637145</v>
+        <v>0.340688867097353</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4039256761915394</v>
+        <v>0.4029464400834034</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>79746</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>64192</v>
+        <v>64636</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>96314</v>
+        <v>99018</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1536103527527283</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1236493773541697</v>
+        <v>0.1245037810966508</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1855238909547809</v>
+        <v>0.1907326370931793</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>108</v>
@@ -1700,19 +1700,19 @@
         <v>109986</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>91583</v>
+        <v>92523</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>128195</v>
+        <v>130791</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2133000667378572</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1776104588333277</v>
+        <v>0.1794325747891854</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2486115744871745</v>
+        <v>0.253646863911502</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>183</v>
@@ -1721,19 +1721,19 @@
         <v>189733</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>167493</v>
+        <v>167516</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>218592</v>
+        <v>214992</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1833541188026768</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1618619589552514</v>
+        <v>0.1618840482127799</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2112425915116896</v>
+        <v>0.2077643434250504</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>313494</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>291567</v>
+        <v>289207</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>334536</v>
+        <v>335942</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6038639726179577</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5616274775908012</v>
+        <v>0.5570817402628984</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6443946782396143</v>
+        <v>0.6471038034845709</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>139</v>
@@ -1771,19 +1771,19 @@
         <v>145203</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>124389</v>
+        <v>125371</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>164670</v>
+        <v>168611</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2815957129918329</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2412321103705224</v>
+        <v>0.2431352792764985</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3193485820831838</v>
+        <v>0.3269925424596038</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>434</v>
@@ -1792,19 +1792,19 @@
         <v>458697</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>426528</v>
+        <v>426742</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>490461</v>
+        <v>492922</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4432756387212389</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.412187970025715</v>
+        <v>0.4123952284303035</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4739715998473753</v>
+        <v>0.4763502681359961</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>130986</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>113261</v>
+        <v>112864</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>151538</v>
+        <v>150582</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3387183827321864</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2928846965499416</v>
+        <v>0.2918573228144019</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3918650594681439</v>
+        <v>0.3893920860669179</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>238</v>
@@ -1917,19 +1917,19 @@
         <v>243627</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>223502</v>
+        <v>224162</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>262935</v>
+        <v>262933</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6030576841213527</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5532411266680296</v>
+        <v>0.5548764269864638</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6508510035638138</v>
+        <v>0.6508456800176758</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>371</v>
@@ -1938,19 +1938,19 @@
         <v>374613</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>343938</v>
+        <v>346358</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>398865</v>
+        <v>403468</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4737758125695413</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4349812668824984</v>
+        <v>0.4380425047268461</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5044486044123827</v>
+        <v>0.5102690709134398</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>75633</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>61162</v>
+        <v>61729</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>93713</v>
+        <v>91940</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1955799496660333</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1581609155467913</v>
+        <v>0.1596251597857</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2423349752874224</v>
+        <v>0.2377494851222471</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>84</v>
@@ -1988,19 +1988,19 @@
         <v>84923</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>69341</v>
+        <v>69433</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>101021</v>
+        <v>101037</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2102136365004346</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.171641508769287</v>
+        <v>0.1718698228601278</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2500604347280029</v>
+        <v>0.2500996111453745</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>160</v>
@@ -2009,19 +2009,19 @@
         <v>160556</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>139667</v>
+        <v>140318</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>184509</v>
+        <v>185162</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2030566590411152</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1766385114485761</v>
+        <v>0.1774617247589346</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2333496154856269</v>
+        <v>0.2341756851752234</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>180091</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>159698</v>
+        <v>158856</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>200425</v>
+        <v>197765</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4657016676017804</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4129659739265098</v>
+        <v>0.4107888474949696</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5182812715986367</v>
+        <v>0.511403524931195</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>74</v>
@@ -2059,19 +2059,19 @@
         <v>75436</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>61972</v>
+        <v>60858</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>92182</v>
+        <v>92453</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1867286793782127</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1534009830320259</v>
+        <v>0.150644925664973</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2281820943058938</v>
+        <v>0.2288521665874538</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>257</v>
@@ -2080,19 +2080,19 @@
         <v>255527</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>230769</v>
+        <v>230990</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>283395</v>
+        <v>282175</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3231675283893435</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2918553304744536</v>
+        <v>0.2921344834930139</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3584117528879717</v>
+        <v>0.3568686238374766</v>
       </c>
     </row>
     <row r="23">
@@ -2184,19 +2184,19 @@
         <v>113315</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>97873</v>
+        <v>96816</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>130878</v>
+        <v>130412</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3872932015391527</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3345139684548761</v>
+        <v>0.3309009578996972</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4473202021066096</v>
+        <v>0.4457272691466211</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>276</v>
@@ -2205,19 +2205,19 @@
         <v>256096</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>240583</v>
+        <v>239685</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>270174</v>
+        <v>270676</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7467806839339718</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.70154426315906</v>
+        <v>0.6989259223168242</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.787830782342291</v>
+        <v>0.789293996628273</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>394</v>
@@ -2226,19 +2226,19 @@
         <v>369412</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>345771</v>
+        <v>343261</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>394365</v>
+        <v>390443</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5812777528293818</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5440787090420427</v>
+        <v>0.5401279674386037</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6205412457969246</v>
+        <v>0.6143709116342223</v>
       </c>
     </row>
     <row r="25">
@@ -2255,19 +2255,19 @@
         <v>49469</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>38748</v>
+        <v>38101</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>61817</v>
+        <v>63937</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1690764738616913</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1324339851506999</v>
+        <v>0.1302222714771937</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2112790290547542</v>
+        <v>0.2185260520424014</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>64</v>
@@ -2276,19 +2276,19 @@
         <v>57445</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>44101</v>
+        <v>46063</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>70091</v>
+        <v>71814</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1675097602078573</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1285993255247071</v>
+        <v>0.134320505706899</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2043854254636039</v>
+        <v>0.2094099333227115</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>116</v>
@@ -2297,19 +2297,19 @@
         <v>106914</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>88949</v>
+        <v>89680</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>124979</v>
+        <v>126322</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1682310529220952</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1399637273297491</v>
+        <v>0.1411127973357229</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1966577458981661</v>
+        <v>0.198770999227315</v>
       </c>
     </row>
     <row r="26">
@@ -2326,19 +2326,19 @@
         <v>129799</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>112989</v>
+        <v>113058</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>146079</v>
+        <v>147278</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.443630324599156</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3861765697889927</v>
+        <v>0.3864145660487446</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4992725488508987</v>
+        <v>0.5033703409874586</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>31</v>
@@ -2347,19 +2347,19 @@
         <v>29393</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>20827</v>
+        <v>20514</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>40326</v>
+        <v>40811</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08570955585817097</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06073102592448036</v>
+        <v>0.05981934630467376</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1175900541770316</v>
+        <v>0.1190049019440609</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>164</v>
@@ -2368,19 +2368,19 @@
         <v>159191</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>139675</v>
+        <v>138679</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>181923</v>
+        <v>181496</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2504911942485231</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2197810410234585</v>
+        <v>0.2182151470481679</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2862595159740701</v>
+        <v>0.2855885359461097</v>
       </c>
     </row>
     <row r="27">
@@ -2472,19 +2472,19 @@
         <v>100683</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>86732</v>
+        <v>86281</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>113739</v>
+        <v>113704</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4797105433667913</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4132377895435116</v>
+        <v>0.4110894212732244</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5419138660885691</v>
+        <v>0.5417511558114698</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>244</v>
@@ -2493,19 +2493,19 @@
         <v>281563</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>266089</v>
+        <v>266004</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>293697</v>
+        <v>294797</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8432341424596794</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7968935361293105</v>
+        <v>0.7966378317331262</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8795760222429966</v>
+        <v>0.8828696531450072</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>350</v>
@@ -2514,19 +2514,19 @@
         <v>382246</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>357961</v>
+        <v>357289</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>402137</v>
+        <v>402329</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7029276163475667</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.658268904851656</v>
+        <v>0.6570345782592418</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7395065343748699</v>
+        <v>0.7398599103935446</v>
       </c>
     </row>
     <row r="29">
@@ -2543,19 +2543,19 @@
         <v>36064</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>27344</v>
+        <v>27220</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>47877</v>
+        <v>46959</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1718311564815716</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1302838790649575</v>
+        <v>0.1296910817518893</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2281131779263556</v>
+        <v>0.2237395098958927</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>32</v>
@@ -2564,19 +2564,19 @@
         <v>35820</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>25870</v>
+        <v>25202</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>50699</v>
+        <v>48605</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.107276235799185</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07747783264426854</v>
+        <v>0.07547478698276297</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1518356471135414</v>
+        <v>0.1455646155840069</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>72</v>
@@ -2585,19 +2585,19 @@
         <v>71885</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>57144</v>
+        <v>57295</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>87719</v>
+        <v>89797</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1321920230740416</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.10508510478713</v>
+        <v>0.1053616210817251</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1613095141887024</v>
+        <v>0.1651315432788436</v>
       </c>
     </row>
     <row r="30">
@@ -2614,19 +2614,19 @@
         <v>73135</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>59202</v>
+        <v>59344</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>87846</v>
+        <v>87311</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3484583001516371</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.282072239015057</v>
+        <v>0.2827470975606726</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4185491260922051</v>
+        <v>0.4159961823051282</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>14</v>
@@ -2635,19 +2635,19 @@
         <v>16525</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>9221</v>
+        <v>9669</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>26302</v>
+        <v>28047</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.04948962174113554</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02761586707613942</v>
+        <v>0.0289562311174725</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.07876938709303039</v>
+        <v>0.0839954924099625</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>88</v>
@@ -2656,19 +2656,19 @@
         <v>89660</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>73937</v>
+        <v>72997</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>109190</v>
+        <v>109695</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1648803605783918</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1359655718303733</v>
+        <v>0.1342366151311948</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2007949193485826</v>
+        <v>0.2017236154443207</v>
       </c>
     </row>
     <row r="31">
@@ -2760,19 +2760,19 @@
         <v>853552</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>799159</v>
+        <v>808020</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>904543</v>
+        <v>906590</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2605037613168781</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2439030758347922</v>
+        <v>0.2466074205422118</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2760663454046912</v>
+        <v>0.2766908915165671</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1720</v>
@@ -2781,19 +2781,19 @@
         <v>1786962</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1731811</v>
+        <v>1726457</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1843334</v>
+        <v>1852439</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5288125771850047</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5124917965319051</v>
+        <v>0.5109073783996453</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5454948026145258</v>
+        <v>0.5481890211557454</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2547</v>
@@ -2802,19 +2802,19 @@
         <v>2640514</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2559893</v>
+        <v>2565161</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2719851</v>
+        <v>2726454</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3967272830643235</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3846142264994757</v>
+        <v>0.3854057969941816</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.408647290168641</v>
+        <v>0.4096393979384069</v>
       </c>
     </row>
     <row r="33">
@@ -2831,19 +2831,19 @@
         <v>542087</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>497644</v>
+        <v>500794</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>580142</v>
+        <v>581413</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1654449205693351</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1518807656139675</v>
+        <v>0.152842054777483</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1770593076817596</v>
+        <v>0.1774470793055561</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>702</v>
@@ -2852,19 +2852,19 @@
         <v>696715</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>647880</v>
+        <v>650464</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>744642</v>
+        <v>747055</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2061775671834648</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1917261656024719</v>
+        <v>0.192490803600443</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2203606124891862</v>
+        <v>0.221074846026584</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1243</v>
@@ -2873,19 +2873,19 @@
         <v>1238802</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1177042</v>
+        <v>1180647</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1299598</v>
+        <v>1307060</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1861253613290532</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1768460540548669</v>
+        <v>0.1773877369785094</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1952596612260772</v>
+        <v>0.1963807966733827</v>
       </c>
     </row>
     <row r="34">
@@ -2902,19 +2902,19 @@
         <v>1880904</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1824603</v>
+        <v>1823521</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1934480</v>
+        <v>1936489</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.5740513181137867</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5568683724871063</v>
+        <v>0.5565381121046986</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.590402892886401</v>
+        <v>0.591015818389501</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>875</v>
@@ -2923,19 +2923,19 @@
         <v>895521</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>846116</v>
+        <v>839665</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>949907</v>
+        <v>946737</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2650098556315305</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2503897932298049</v>
+        <v>0.2484804892989605</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.281104229782964</v>
+        <v>0.2801662290495667</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2721</v>
@@ -2944,19 +2944,19 @@
         <v>2776425</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2699439</v>
+        <v>2691705</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>2858153</v>
+        <v>2850291</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.4171473556066232</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4055804652034533</v>
+        <v>0.4044185798886609</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.429426657605888</v>
+        <v>0.4282454789954624</v>
       </c>
     </row>
     <row r="35">
@@ -3291,19 +3291,19 @@
         <v>113777</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>96539</v>
+        <v>96230</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>134409</v>
+        <v>135200</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2505297133291973</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2125733033676895</v>
+        <v>0.2118917818948106</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2959598048493882</v>
+        <v>0.2977012001029875</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>180</v>
@@ -3312,19 +3312,19 @@
         <v>183572</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>164016</v>
+        <v>162929</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>204388</v>
+        <v>203607</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4266824382673644</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.381228186688305</v>
+        <v>0.3787027303359687</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4750673279698884</v>
+        <v>0.4732506414655446</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>291</v>
@@ -3333,19 +3333,19 @@
         <v>297349</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>271368</v>
+        <v>269744</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>325042</v>
+        <v>325234</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.336224209877356</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3068472784389829</v>
+        <v>0.3050104228171458</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3675379528904099</v>
+        <v>0.367755069021089</v>
       </c>
     </row>
     <row r="5">
@@ -3362,19 +3362,19 @@
         <v>58509</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>44829</v>
+        <v>45617</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>73920</v>
+        <v>74779</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1288336099431394</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09871155993874053</v>
+        <v>0.1004452298050942</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1627667028875125</v>
+        <v>0.1646578177985787</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>62</v>
@@ -3383,19 +3383,19 @@
         <v>62142</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>48617</v>
+        <v>48355</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>76355</v>
+        <v>76690</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1444379049673274</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1130030006334176</v>
+        <v>0.1123923760808992</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1774746084388386</v>
+        <v>0.178252585076702</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>118</v>
@@ -3404,19 +3404,19 @@
         <v>120651</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>102593</v>
+        <v>104094</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>142090</v>
+        <v>143280</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1364247624873655</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.116005705467102</v>
+        <v>0.1177030086679418</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1606669877758446</v>
+        <v>0.1620125407681203</v>
       </c>
     </row>
     <row r="6">
@@ -3433,19 +3433,19 @@
         <v>281860</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>260361</v>
+        <v>257651</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>301777</v>
+        <v>300560</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6206366767276633</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5732976614696192</v>
+        <v>0.5673305682627039</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6644923491119603</v>
+        <v>0.6618143611723484</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>179</v>
@@ -3454,19 +3454,19 @@
         <v>184517</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>163971</v>
+        <v>164979</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>204276</v>
+        <v>203730</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4288796567653083</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3811241083011655</v>
+        <v>0.3834679233853021</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4748076560165153</v>
+        <v>0.4735373227019808</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>458</v>
@@ -3475,19 +3475,19 @@
         <v>466377</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>436264</v>
+        <v>436080</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>494745</v>
+        <v>494102</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5273510276352785</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4933015832437445</v>
+        <v>0.4930929665787678</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5594286894273469</v>
+        <v>0.5587007342578476</v>
       </c>
     </row>
     <row r="7">
@@ -3579,19 +3579,19 @@
         <v>154249</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>135233</v>
+        <v>133322</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>179310</v>
+        <v>178571</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2244965208165259</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1968208796030562</v>
+        <v>0.1940394890219296</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2609719606927744</v>
+        <v>0.25989580184249</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>277</v>
@@ -3600,19 +3600,19 @@
         <v>298700</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>272892</v>
+        <v>272887</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>324423</v>
+        <v>322653</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4902722106404636</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4479115483017421</v>
+        <v>0.4479034280071277</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5324918389592517</v>
+        <v>0.5295876530937085</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>425</v>
@@ -3621,19 +3621,19 @@
         <v>452949</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>418732</v>
+        <v>418373</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>488490</v>
+        <v>491432</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3494056769080396</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3230104867956362</v>
+        <v>0.3227335103266637</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3768218634311912</v>
+        <v>0.3790914015744986</v>
       </c>
     </row>
     <row r="9">
@@ -3650,19 +3650,19 @@
         <v>65042</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>50969</v>
+        <v>51122</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>82134</v>
+        <v>81442</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09466322971570856</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07418155135344058</v>
+        <v>0.07440396080892402</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1195398575159945</v>
+        <v>0.1185322799492813</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>91</v>
@@ -3671,19 +3671,19 @@
         <v>97119</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>79105</v>
+        <v>79224</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>117042</v>
+        <v>116614</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.15940647316176</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1298385186435609</v>
+        <v>0.1300348018885812</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1921071849730566</v>
+        <v>0.1914047483396898</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>154</v>
@@ -3692,19 +3692,19 @@
         <v>162161</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>139425</v>
+        <v>137443</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>190346</v>
+        <v>190765</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1250912342741049</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1075523523368859</v>
+        <v>0.1060239299201012</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1468335817679933</v>
+        <v>0.1471563059044592</v>
       </c>
     </row>
     <row r="10">
@@ -3721,19 +3721,19 @@
         <v>467796</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>441284</v>
+        <v>440392</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>491662</v>
+        <v>490393</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6808402494677656</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6422539164307084</v>
+        <v>0.6409558224695568</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7155750797231314</v>
+        <v>0.7137271964222132</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>202</v>
@@ -3742,19 +3742,19 @@
         <v>213435</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>190729</v>
+        <v>189580</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>236942</v>
+        <v>237769</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3503213161977765</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3130537456031666</v>
+        <v>0.3111667943166391</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3889043412221812</v>
+        <v>0.3902628177036642</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>658</v>
@@ -3763,19 +3763,19 @@
         <v>681231</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>645845</v>
+        <v>641899</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>718860</v>
+        <v>720997</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5255030888178555</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4982063411811113</v>
+        <v>0.4951623008104566</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5545302584092775</v>
+        <v>0.556178549186599</v>
       </c>
     </row>
     <row r="11">
@@ -3867,19 +3867,19 @@
         <v>166310</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>144245</v>
+        <v>143038</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>190802</v>
+        <v>190798</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.243905600576073</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2115447890754741</v>
+        <v>0.2097756600290223</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2798240728580738</v>
+        <v>0.2798190176792168</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>336</v>
@@ -3888,19 +3888,19 @@
         <v>352975</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>323548</v>
+        <v>324061</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>380521</v>
+        <v>380741</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4965533361539894</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4551560267819159</v>
+        <v>0.4558784640555986</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5353042151502578</v>
+        <v>0.535614011277511</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>491</v>
@@ -3909,19 +3909,19 @@
         <v>519285</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>484609</v>
+        <v>480863</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>556702</v>
+        <v>556607</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3728586901264057</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3479608203023484</v>
+        <v>0.345270658903771</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.399725038591312</v>
+        <v>0.3996570423565801</v>
       </c>
     </row>
     <row r="13">
@@ -3938,19 +3938,19 @@
         <v>86505</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>70141</v>
+        <v>70416</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>104088</v>
+        <v>105894</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1268652785293931</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1028670561799922</v>
+        <v>0.1032699100500653</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1526521620085308</v>
+        <v>0.1553015911428242</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>106</v>
@@ -3959,19 +3959,19 @@
         <v>112448</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>94447</v>
+        <v>92382</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>136289</v>
+        <v>134810</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1581883136229708</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1328649361339177</v>
+        <v>0.1299595175290103</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1917270110114024</v>
+        <v>0.1896467059274994</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>191</v>
@@ -3980,19 +3980,19 @@
         <v>198953</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>174377</v>
+        <v>172984</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>229386</v>
+        <v>224461</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1428527645845161</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1252067722642875</v>
+        <v>0.1242064832354703</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1647047122487925</v>
+        <v>0.1611685546941821</v>
       </c>
     </row>
     <row r="14">
@@ -4009,19 +4009,19 @@
         <v>429048</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>405030</v>
+        <v>403616</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>454967</v>
+        <v>455692</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6292291208945339</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5940053439580238</v>
+        <v>0.5919307535602695</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.667240988455955</v>
+        <v>0.6683049092850842</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>225</v>
@@ -4030,19 +4030,19 @@
         <v>245427</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>220435</v>
+        <v>220730</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>271810</v>
+        <v>272773</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3452583502230397</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3101009232801408</v>
+        <v>0.3105161726758526</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3823727670651288</v>
+        <v>0.3837280868794746</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>636</v>
@@ -4051,19 +4051,19 @@
         <v>674474</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>637457</v>
+        <v>639981</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>714933</v>
+        <v>711992</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4842885452890782</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4577088853948376</v>
+        <v>0.4595214675403485</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5133383981181106</v>
+        <v>0.5112268713596951</v>
       </c>
     </row>
     <row r="15">
@@ -4155,19 +4155,19 @@
         <v>140226</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>120072</v>
+        <v>119218</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>161571</v>
+        <v>164376</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2281512621039473</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.195361330298824</v>
+        <v>0.1939707984074229</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2628812838809948</v>
+        <v>0.2674443883439099</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>286</v>
@@ -4176,19 +4176,19 @@
         <v>329877</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>301615</v>
+        <v>302807</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>354151</v>
+        <v>355284</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5353419589176358</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4894758440334862</v>
+        <v>0.4914113362218214</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5747341576759304</v>
+        <v>0.5765741325984802</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>409</v>
@@ -4197,19 +4197,19 @@
         <v>470103</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>433637</v>
+        <v>436099</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>504631</v>
+        <v>507107</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3819440831885269</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.352316466622857</v>
+        <v>0.3543166756146399</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.409997277138111</v>
+        <v>0.4120088325423052</v>
       </c>
     </row>
     <row r="17">
@@ -4226,19 +4226,19 @@
         <v>80283</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>63965</v>
+        <v>63923</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>98438</v>
+        <v>98785</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1306232188203095</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1040728035587288</v>
+        <v>0.1040043486733117</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1601615957933579</v>
+        <v>0.1607254161837911</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>63</v>
@@ -4247,19 +4247,19 @@
         <v>69807</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>55316</v>
+        <v>53556</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>88105</v>
+        <v>87081</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1132860469121443</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08976933127918801</v>
+        <v>0.08691330132537668</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.142981814265185</v>
+        <v>0.1413190574799201</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>135</v>
@@ -4268,19 +4268,19 @@
         <v>150090</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>126033</v>
+        <v>126681</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>174838</v>
+        <v>175048</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1219434879396501</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1023982837233147</v>
+        <v>0.1029241535417289</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1420503545311095</v>
+        <v>0.1422213949403653</v>
       </c>
     </row>
     <row r="18">
@@ -4297,19 +4297,19 @@
         <v>394108</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>369202</v>
+        <v>367080</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>419117</v>
+        <v>419030</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6412255190757432</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6007027979828008</v>
+        <v>0.597249679685289</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6819161266042413</v>
+        <v>0.6817746174830194</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>190</v>
@@ -4318,19 +4318,19 @@
         <v>216515</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>193430</v>
+        <v>192413</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>243804</v>
+        <v>243947</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.35137199417022</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3139090821259884</v>
+        <v>0.3122577364417391</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3956571142809631</v>
+        <v>0.395889167388434</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>543</v>
@@ -4339,19 +4339,19 @@
         <v>610623</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>576841</v>
+        <v>576079</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>650333</v>
+        <v>650531</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4961124288718231</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4686654447976641</v>
+        <v>0.4680467782537117</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5283753202541187</v>
+        <v>0.528536467344692</v>
       </c>
     </row>
     <row r="19">
@@ -4443,19 +4443,19 @@
         <v>126699</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>107467</v>
+        <v>108991</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>147266</v>
+        <v>149279</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2950395184480289</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2502544105214263</v>
+        <v>0.2538037194240593</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3429343116033797</v>
+        <v>0.347622128413766</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>255</v>
@@ -4464,19 +4464,19 @@
         <v>278839</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>257889</v>
+        <v>256765</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>299071</v>
+        <v>299982</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6226866242696623</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.575902462444306</v>
+        <v>0.5733919226850468</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6678672053301459</v>
+        <v>0.6699027601335765</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>370</v>
@@ -4485,19 +4485,19 @@
         <v>405538</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>373610</v>
+        <v>377270</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>436015</v>
+        <v>439699</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4622938468323929</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4258975208443006</v>
+        <v>0.4300706538780856</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4970369539297818</v>
+        <v>0.5012358572811434</v>
       </c>
     </row>
     <row r="21">
@@ -4514,19 +4514,19 @@
         <v>70940</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>56745</v>
+        <v>57284</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>88231</v>
+        <v>88398</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1651957584700396</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1321399864486879</v>
+        <v>0.133396764938165</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2054610798781198</v>
+        <v>0.2058504349642349</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>52</v>
@@ -4535,19 +4535,19 @@
         <v>56767</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>43901</v>
+        <v>43712</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>72236</v>
+        <v>72650</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1267694774275032</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09803605093026865</v>
+        <v>0.09761594226854128</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1613121950195874</v>
+        <v>0.1622382556385234</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>119</v>
@@ -4556,19 +4556,19 @@
         <v>127707</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>108579</v>
+        <v>104350</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>151062</v>
+        <v>148821</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1455802583972967</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1237746283895445</v>
+        <v>0.1189539312288191</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1722031597826265</v>
+        <v>0.1696487094690872</v>
       </c>
     </row>
     <row r="22">
@@ -4585,19 +4585,19 @@
         <v>231791</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>211389</v>
+        <v>209216</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>252915</v>
+        <v>251609</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5397647230819316</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4922566653338982</v>
+        <v>0.4871947746066816</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5889571277289217</v>
+        <v>0.5859161985680176</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>99</v>
@@ -4606,19 +4606,19 @@
         <v>112194</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>95174</v>
+        <v>94165</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>133971</v>
+        <v>133125</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2505438983028346</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2125369742902561</v>
+        <v>0.2102834421273581</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2991753572979275</v>
+        <v>0.2972874958098972</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>310</v>
@@ -4627,19 +4627,19 @@
         <v>343984</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>315301</v>
+        <v>312782</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>375146</v>
+        <v>374792</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3921258947703104</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3594281848703597</v>
+        <v>0.356556575522072</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4276489925153595</v>
+        <v>0.4272454295945897</v>
       </c>
     </row>
     <row r="23">
@@ -4731,19 +4731,19 @@
         <v>108209</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>90849</v>
+        <v>91329</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>126483</v>
+        <v>126270</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3493024010229731</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2932641920061865</v>
+        <v>0.2948123548242917</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.408290273157936</v>
+        <v>0.4076055639548098</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>247</v>
@@ -4752,19 +4752,19 @@
         <v>251695</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>234338</v>
+        <v>234204</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>268192</v>
+        <v>269143</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7129585448797642</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6637927618239341</v>
+        <v>0.6634141325783709</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7596896617187578</v>
+        <v>0.7623832656023266</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>346</v>
@@ -4773,19 +4773,19 @@
         <v>359905</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>334654</v>
+        <v>330848</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>390130</v>
+        <v>385423</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5429932463693126</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5048965866172435</v>
+        <v>0.4991551225473546</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5885952469666442</v>
+        <v>0.58149356556383</v>
       </c>
     </row>
     <row r="25">
@@ -4802,19 +4802,19 @@
         <v>47144</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>35819</v>
+        <v>34659</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>60677</v>
+        <v>61346</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1521832426925744</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1156245074297084</v>
+        <v>0.1118806433275701</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1958682479059873</v>
+        <v>0.1980283620838378</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>45</v>
@@ -4823,19 +4823,19 @@
         <v>43852</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>32899</v>
+        <v>33159</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>57444</v>
+        <v>56733</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1242159501007855</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09319073871036739</v>
+        <v>0.09392784362961606</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1627168193928455</v>
+        <v>0.1607025760718418</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>89</v>
@@ -4844,19 +4844,19 @@
         <v>90996</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>75041</v>
+        <v>75491</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>108879</v>
+        <v>112538</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1372872794711054</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1132159413695731</v>
+        <v>0.1138950043054458</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.164266677117059</v>
+        <v>0.1697880411346587</v>
       </c>
     </row>
     <row r="26">
@@ -4873,19 +4873,19 @@
         <v>154433</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>134823</v>
+        <v>134912</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>172109</v>
+        <v>172823</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4985143562844525</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4352144368971155</v>
+        <v>0.4355001951679321</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5555728180905936</v>
+        <v>0.557880123200975</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>51</v>
@@ -4894,19 +4894,19 @@
         <v>57482</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>42814</v>
+        <v>43734</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>73100</v>
+        <v>72303</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1628255050194503</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1212750571017172</v>
+        <v>0.1238809233433394</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2070657153689106</v>
+        <v>0.2048086417565677</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>190</v>
@@ -4915,19 +4915,19 @@
         <v>211915</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>187601</v>
+        <v>187893</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>236631</v>
+        <v>236560</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3197194741595821</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2830359225872578</v>
+        <v>0.2834769016288801</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3570087595823995</v>
+        <v>0.3569009644099763</v>
       </c>
     </row>
     <row r="27">
@@ -5019,19 +5019,19 @@
         <v>134253</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>117291</v>
+        <v>117750</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>150824</v>
+        <v>151414</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5373333058410208</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4694424919783993</v>
+        <v>0.4712825869563126</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6036567766933727</v>
+        <v>0.6060167435917032</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>297</v>
@@ -5040,19 +5040,19 @@
         <v>329962</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>314755</v>
+        <v>315783</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>342898</v>
+        <v>343878</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8482764156462133</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8091825124465162</v>
+        <v>0.8118250828843021</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8815323119310503</v>
+        <v>0.8840520209810667</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>418</v>
@@ -5061,19 +5061,19 @@
         <v>464215</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>439620</v>
+        <v>440008</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>485779</v>
+        <v>487644</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7266643757177009</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6881639464352585</v>
+        <v>0.6887720010241259</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7604200086026135</v>
+        <v>0.7633396486882091</v>
       </c>
     </row>
     <row r="29">
@@ -5090,19 +5090,19 @@
         <v>30066</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>19763</v>
+        <v>20451</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>41108</v>
+        <v>41297</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1203361045037813</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07910105515487785</v>
+        <v>0.08185322633334428</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1645312817677699</v>
+        <v>0.1652853947337275</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>31</v>
@@ -5111,19 +5111,19 @@
         <v>34649</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>25424</v>
+        <v>24524</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>48684</v>
+        <v>47121</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.08907658969147135</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0653613273473469</v>
+        <v>0.06304757281635659</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1251575691283212</v>
+        <v>0.1211411248297929</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>58</v>
@@ -5132,19 +5132,19 @@
         <v>64715</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>50651</v>
+        <v>49849</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>80641</v>
+        <v>82167</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1013024060663131</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07928667495670255</v>
+        <v>0.07803244043281278</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1262323987585119</v>
+        <v>0.128620405072585</v>
       </c>
     </row>
     <row r="30">
@@ -5161,19 +5161,19 @@
         <v>85532</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>69736</v>
+        <v>70292</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>102580</v>
+        <v>101096</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.342330589655198</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2791102926249901</v>
+        <v>0.2813338361400532</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4105631573713999</v>
+        <v>0.404626721909806</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>22</v>
@@ -5182,19 +5182,19 @@
         <v>24368</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>14928</v>
+        <v>15588</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>34819</v>
+        <v>36253</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.06264699466231537</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03837784936233007</v>
+        <v>0.04007328216019176</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.08951470295160617</v>
+        <v>0.09320010553349339</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>96</v>
@@ -5203,19 +5203,19 @@
         <v>109900</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>91261</v>
+        <v>91241</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>131376</v>
+        <v>132417</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1720332182159859</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.142856467793282</v>
+        <v>0.1428249092358101</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2056506379746765</v>
+        <v>0.2072811303553832</v>
       </c>
     </row>
     <row r="31">
@@ -5307,19 +5307,19 @@
         <v>943722</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>889143</v>
+        <v>889383</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>995222</v>
+        <v>1001333</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2753963238786427</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.25946909978702</v>
+        <v>0.2595391610727318</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.290424867095799</v>
+        <v>0.2922081136069746</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1878</v>
@@ -5328,19 +5328,19 @@
         <v>2025620</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1962956</v>
+        <v>1960161</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2082326</v>
+        <v>2082687</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5695797847922034</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5519593694765093</v>
+        <v>0.5511734669605987</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5855247218909839</v>
+        <v>0.5856263345447033</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2750</v>
@@ -5349,19 +5349,19 @@
         <v>2969342</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2875143</v>
+        <v>2878339</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>3053052</v>
+        <v>3057948</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4252171344078009</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4117275456360175</v>
+        <v>0.4121852268518694</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4372045923590513</v>
+        <v>0.437905648302558</v>
       </c>
     </row>
     <row r="33">
@@ -5378,19 +5378,19 @@
         <v>438489</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>400808</v>
+        <v>400525</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>480835</v>
+        <v>480079</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1279596163700557</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1169633369961404</v>
+        <v>0.1168809028230508</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1403169612768322</v>
+        <v>0.1400962144051479</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>450</v>
@@ -5399,19 +5399,19 @@
         <v>476784</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>437770</v>
+        <v>437286</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>522539</v>
+        <v>519817</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1340657630957602</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.12309553231788</v>
+        <v>0.1229595384320199</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1469317162447122</v>
+        <v>0.1461662858250718</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>864</v>
@@ -5420,19 +5420,19 @@
         <v>915273</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>854746</v>
+        <v>863648</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>973166</v>
+        <v>979589</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1310693352128965</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1224016727800065</v>
+        <v>0.1236764984729321</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1393597517235922</v>
+        <v>0.1402796268912027</v>
       </c>
     </row>
     <row r="34">
@@ -5449,19 +5449,19 @@
         <v>2044567</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1986714</v>
+        <v>1980559</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>2104744</v>
+        <v>2102125</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.5966440597513015</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5797613428813038</v>
+        <v>0.5779652463914157</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.6142046269486326</v>
+        <v>0.6134406279306226</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>968</v>
@@ -5470,19 +5470,19 @@
         <v>1053937</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>998445</v>
+        <v>1003818</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1111665</v>
+        <v>1112148</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2963544521120364</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2807506788307395</v>
+        <v>0.2822614337879117</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3125867668061417</v>
+        <v>0.3127224894696961</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2891</v>
@@ -5491,19 +5491,19 @@
         <v>3098505</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>3012449</v>
+        <v>3011427</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>3189120</v>
+        <v>3185702</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.4437135303793026</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4313900566718109</v>
+        <v>0.4312437422799805</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.456689816400249</v>
+        <v>0.4562003215927979</v>
       </c>
     </row>
     <row r="35">
@@ -5838,19 +5838,19 @@
         <v>75399</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>60074</v>
+        <v>59882</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>91808</v>
+        <v>91525</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1802223843154862</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.143591127451124</v>
+        <v>0.1431327341750407</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2194434363376301</v>
+        <v>0.2187658476108002</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>104</v>
@@ -5859,19 +5859,19 @@
         <v>103831</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>85860</v>
+        <v>86196</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>121297</v>
+        <v>122908</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2623624073404614</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.216953521841322</v>
+        <v>0.2178023832279112</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3064950730917267</v>
+        <v>0.3105661072963285</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>172</v>
@@ -5880,19 +5880,19 @@
         <v>179231</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>159422</v>
+        <v>155166</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>204105</v>
+        <v>202333</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2201516244520203</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.195819992710364</v>
+        <v>0.1905924694639005</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2507055419566073</v>
+        <v>0.248528536750619</v>
       </c>
     </row>
     <row r="5">
@@ -5909,19 +5909,19 @@
         <v>85733</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>69642</v>
+        <v>69869</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>102754</v>
+        <v>103912</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2049219243515183</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1664617319718195</v>
+        <v>0.1670027623135243</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2456071361379903</v>
+        <v>0.2483740437279281</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>123</v>
@@ -5930,19 +5930,19 @@
         <v>119429</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>100707</v>
+        <v>102793</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>138396</v>
+        <v>138742</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3017762598865267</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2544686067560139</v>
+        <v>0.2597386148446628</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3496999764678824</v>
+        <v>0.3505746249482207</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>204</v>
@@ -5951,19 +5951,19 @@
         <v>205162</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>181419</v>
+        <v>181062</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>230172</v>
+        <v>231206</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2520039664476827</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2228401870593031</v>
+        <v>0.2224017205138754</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.282724061132976</v>
+        <v>0.2839942933127712</v>
       </c>
     </row>
     <row r="6">
@@ -5980,19 +5980,19 @@
         <v>257236</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>236644</v>
+        <v>237043</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>277342</v>
+        <v>277165</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6148556913329956</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.565635506479681</v>
+        <v>0.566590214882894</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.662913815940108</v>
+        <v>0.6624920712181579</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>177</v>
@@ -6001,19 +6001,19 @@
         <v>172494</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>152805</v>
+        <v>154766</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>193333</v>
+        <v>193986</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4358613327730119</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3861089877733524</v>
+        <v>0.391065494421016</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4885174207577501</v>
+        <v>0.490165832732798</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>420</v>
@@ -6022,19 +6022,19 @@
         <v>429730</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>402646</v>
+        <v>401758</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>456949</v>
+        <v>458289</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.527844409100297</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4945761375336094</v>
+        <v>0.4934853712639284</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5612780351719125</v>
+        <v>0.5629234048481649</v>
       </c>
     </row>
     <row r="7">
@@ -6126,19 +6126,19 @@
         <v>65305</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>51554</v>
+        <v>50881</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>82576</v>
+        <v>82453</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1105931197823833</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0873059776831812</v>
+        <v>0.0861660312267471</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1398413717536094</v>
+        <v>0.1396329938812446</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>112</v>
@@ -6147,19 +6147,19 @@
         <v>110982</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>91175</v>
+        <v>92968</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>130573</v>
+        <v>128755</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1972846867086915</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1620760626317819</v>
+        <v>0.1652631716761507</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2321119817336318</v>
+        <v>0.2288798484939626</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>173</v>
@@ -6168,19 +6168,19 @@
         <v>176286</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>154067</v>
+        <v>153170</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>202253</v>
+        <v>205131</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1528881552758743</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1336176275805748</v>
+        <v>0.1328396931329116</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1754080696973541</v>
+        <v>0.1779038515385888</v>
       </c>
     </row>
     <row r="9">
@@ -6197,19 +6197,19 @@
         <v>158604</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>137498</v>
+        <v>135497</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>181714</v>
+        <v>178517</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2685947393843603</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2328524847440802</v>
+        <v>0.2294633124022533</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3077307989352746</v>
+        <v>0.3023177831222953</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>234</v>
@@ -6218,19 +6218,19 @@
         <v>224212</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>202807</v>
+        <v>199912</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>246346</v>
+        <v>246656</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3985674177446363</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3605166411646671</v>
+        <v>0.3553707616593633</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4379138466701511</v>
+        <v>0.4384639013671502</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>386</v>
@@ -6239,19 +6239,19 @@
         <v>382817</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>355208</v>
+        <v>353747</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>417478</v>
+        <v>415718</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3320057404694466</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3080618181883636</v>
+        <v>0.3067942824618288</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3620667091221734</v>
+        <v>0.360540347887124</v>
       </c>
     </row>
     <row r="10">
@@ -6268,19 +6268,19 @@
         <v>366587</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>342247</v>
+        <v>343125</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>390275</v>
+        <v>389056</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6208121408332564</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5795919307602767</v>
+        <v>0.5810794857105912</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6609273103703751</v>
+        <v>0.6588629505720704</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>232</v>
@@ -6289,19 +6289,19 @@
         <v>227351</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>205221</v>
+        <v>204747</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>249722</v>
+        <v>250894</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4041478955466723</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3648084428474037</v>
+        <v>0.3639660281074177</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4439147511320785</v>
+        <v>0.4459983089932362</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>586</v>
@@ -6310,19 +6310,19 @@
         <v>593939</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>560777</v>
+        <v>558628</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>626808</v>
+        <v>629463</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5151061042546792</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4863459142170353</v>
+        <v>0.4844821992922675</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5436121404143456</v>
+        <v>0.5459148381474286</v>
       </c>
     </row>
     <row r="11">
@@ -6414,19 +6414,19 @@
         <v>71915</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>57082</v>
+        <v>56127</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>90611</v>
+        <v>88701</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.10748105486683</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08531192347075668</v>
+        <v>0.08388489276557712</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1354235226467457</v>
+        <v>0.1325683257777672</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>163</v>
@@ -6435,19 +6435,19 @@
         <v>162572</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>140834</v>
+        <v>141744</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>185231</v>
+        <v>185382</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2461798053941892</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2132620057559571</v>
+        <v>0.2146405041527341</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2804919431540829</v>
+        <v>0.2807202405305093</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>230</v>
@@ -6456,19 +6456,19 @@
         <v>234488</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>210372</v>
+        <v>205843</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>263550</v>
+        <v>263837</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.176375769816529</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1582364500399235</v>
+        <v>0.1548296903265904</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1982354883687157</v>
+        <v>0.1984519988418559</v>
       </c>
     </row>
     <row r="13">
@@ -6485,19 +6485,19 @@
         <v>164939</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>142700</v>
+        <v>144925</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>186345</v>
+        <v>187813</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2465105757972648</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2132726130694189</v>
+        <v>0.2165972917394274</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2785020967378272</v>
+        <v>0.2806955810137632</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>251</v>
@@ -6506,19 +6506,19 @@
         <v>246829</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>222636</v>
+        <v>221737</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>271839</v>
+        <v>275199</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.37376740759838</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.337133449724428</v>
+        <v>0.3357718628658949</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4116398723464056</v>
+        <v>0.4167288402577848</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>410</v>
@@ -6527,19 +6527,19 @@
         <v>411768</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>379080</v>
+        <v>375801</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>445140</v>
+        <v>448128</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3097218384727005</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2851345787047324</v>
+        <v>0.2826680997030682</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3348237320693114</v>
+        <v>0.3370709378355027</v>
       </c>
     </row>
     <row r="14">
@@ -6556,19 +6556,19 @@
         <v>432242</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>406909</v>
+        <v>408032</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>456240</v>
+        <v>456413</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6460083693359052</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6081465814618207</v>
+        <v>0.6098249778495289</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.681874835203099</v>
+        <v>0.6821329807154511</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>250</v>
@@ -6577,19 +6577,19 @@
         <v>250979</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>227193</v>
+        <v>228083</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>276031</v>
+        <v>277542</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3800527870074308</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3440330269276295</v>
+        <v>0.3453808705220844</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4179877501198877</v>
+        <v>0.4202763148910394</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>662</v>
@@ -6598,19 +6598,19 @@
         <v>683221</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>649397</v>
+        <v>646392</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>719454</v>
+        <v>719016</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5139023917107706</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4884601563957284</v>
+        <v>0.4862004630296346</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5411554571501502</v>
+        <v>0.5408261170205166</v>
       </c>
     </row>
     <row r="15">
@@ -6702,19 +6702,19 @@
         <v>75170</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>57590</v>
+        <v>58021</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>92475</v>
+        <v>92528</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1163541632748503</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08914161372329966</v>
+        <v>0.08980920834013896</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1431391034260886</v>
+        <v>0.1432217034322605</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>144</v>
@@ -6723,19 +6723,19 @@
         <v>154684</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>133698</v>
+        <v>133074</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>178475</v>
+        <v>176046</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2391248341654523</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2066825786062089</v>
+        <v>0.2057186905336378</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2759028530136985</v>
+        <v>0.2721479779156252</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>207</v>
@@ -6744,19 +6744,19 @@
         <v>229854</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>202379</v>
+        <v>200951</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>261957</v>
+        <v>261593</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1777787938364842</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.156528246116028</v>
+        <v>0.1554236251592725</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2026082608924973</v>
+        <v>0.2023267940862608</v>
       </c>
     </row>
     <row r="17">
@@ -6773,19 +6773,19 @@
         <v>180216</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>159203</v>
+        <v>156795</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>206313</v>
+        <v>203822</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2789507452179917</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2464255548927594</v>
+        <v>0.2426990186565786</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3193457973358261</v>
+        <v>0.3154899295340239</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>213</v>
@@ -6794,19 +6794,19 @@
         <v>225939</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>202009</v>
+        <v>201247</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>249492</v>
+        <v>250825</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3492767777650297</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3122838936068476</v>
+        <v>0.3111056153707655</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3856868975690013</v>
+        <v>0.3877475362455222</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>380</v>
@@ -6815,19 +6815,19 @@
         <v>406154</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>375835</v>
+        <v>373095</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>443288</v>
+        <v>439929</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3141362706918768</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.290686123691152</v>
+        <v>0.2885667144109943</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3428569381573924</v>
+        <v>0.3402590219775807</v>
       </c>
     </row>
     <row r="18">
@@ -6844,19 +6844,19 @@
         <v>390662</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>363438</v>
+        <v>364461</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>414451</v>
+        <v>415461</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6046950915071581</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5625552114162122</v>
+        <v>0.5641399706748872</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6415170466492944</v>
+        <v>0.6430799715138759</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>243</v>
@@ -6865,19 +6865,19 @@
         <v>266253</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>241653</v>
+        <v>242496</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>290732</v>
+        <v>291916</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4115983880695179</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3735689177941649</v>
+        <v>0.3748732171063754</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4494399404936129</v>
+        <v>0.451270018162884</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>595</v>
@@ -6886,19 +6886,19 @@
         <v>656915</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>617164</v>
+        <v>619915</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>691102</v>
+        <v>691953</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.508084935471639</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4773397775852448</v>
+        <v>0.4794676240485772</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5345267690270885</v>
+        <v>0.535184344258154</v>
       </c>
     </row>
     <row r="19">
@@ -6990,19 +6990,19 @@
         <v>61323</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>48059</v>
+        <v>46515</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>77349</v>
+        <v>77843</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1285727649685926</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1007632293234969</v>
+        <v>0.09752421553263871</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1621728924927252</v>
+        <v>0.1632092804772805</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>139</v>
@@ -7011,19 +7011,19 @@
         <v>160034</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>139975</v>
+        <v>139283</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>182731</v>
+        <v>183554</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.323610114953524</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2830481654792392</v>
+        <v>0.2816490063188551</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3695079718886455</v>
+        <v>0.3711710582986866</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>193</v>
@@ -7032,19 +7032,19 @@
         <v>221357</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>194757</v>
+        <v>192545</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>248681</v>
+        <v>247815</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2278552823540485</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2004746126675428</v>
+        <v>0.1981974201062973</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2559811044633762</v>
+        <v>0.2550896727032417</v>
       </c>
     </row>
     <row r="21">
@@ -7061,19 +7061,19 @@
         <v>128890</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>109366</v>
+        <v>109190</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>149751</v>
+        <v>151208</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2702365816761361</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2293016740377321</v>
+        <v>0.2289311362736986</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3139727698681858</v>
+        <v>0.3170291814433138</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>178</v>
@@ -7082,19 +7082,19 @@
         <v>202618</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>180772</v>
+        <v>179759</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>228568</v>
+        <v>225775</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4097212344768434</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3655463851401876</v>
+        <v>0.363496716416053</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4621952984557354</v>
+        <v>0.4565492510768702</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>293</v>
@@ -7103,19 +7103,19 @@
         <v>331508</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>303512</v>
+        <v>302045</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>366876</v>
+        <v>365445</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3412403533524865</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3124220905233586</v>
+        <v>0.310912162255885</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3776462782277349</v>
+        <v>0.3761731717583769</v>
       </c>
     </row>
     <row r="22">
@@ -7132,19 +7132,19 @@
         <v>286740</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>264011</v>
+        <v>264195</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>309259</v>
+        <v>309807</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6011906533552712</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5535350017290392</v>
+        <v>0.553922212616339</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6484046253428042</v>
+        <v>0.649552714051261</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>114</v>
@@ -7153,19 +7153,19 @@
         <v>131875</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>111093</v>
+        <v>112257</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>152867</v>
+        <v>153929</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2666686505696326</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2246453180716903</v>
+        <v>0.2269996609135345</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3091176128329138</v>
+        <v>0.3112650536644184</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>368</v>
@@ -7174,19 +7174,19 @@
         <v>418615</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>387798</v>
+        <v>385572</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>453279</v>
+        <v>453166</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.430904364293465</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3991831898330518</v>
+        <v>0.3968916948815719</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4665862661248734</v>
+        <v>0.4664700362313154</v>
       </c>
     </row>
     <row r="23">
@@ -7278,19 +7278,19 @@
         <v>48517</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>36531</v>
+        <v>37347</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>62501</v>
+        <v>64185</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1451162824517905</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1092669765635456</v>
+        <v>0.1117084608839485</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1869440574472824</v>
+        <v>0.1919798056525477</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>173</v>
@@ -7299,19 +7299,19 @@
         <v>182505</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>161628</v>
+        <v>163589</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>203033</v>
+        <v>202812</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4831216920217578</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4278554374424244</v>
+        <v>0.433047983106356</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5374615278384977</v>
+        <v>0.53687855504312</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>220</v>
@@ -7320,19 +7320,19 @@
         <v>231022</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>206897</v>
+        <v>205263</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>257543</v>
+        <v>256917</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3244268211378378</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2905476138479681</v>
+        <v>0.2882530150948326</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3616707643953122</v>
+        <v>0.3607922714878685</v>
       </c>
     </row>
     <row r="25">
@@ -7349,19 +7349,19 @@
         <v>108329</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>92002</v>
+        <v>92403</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>126124</v>
+        <v>125220</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3240180094987996</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2751840714405462</v>
+        <v>0.2763833512699756</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3772446273778776</v>
+        <v>0.3745409030128932</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>120</v>
@@ -7370,19 +7370,19 @@
         <v>127654</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>108710</v>
+        <v>109021</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>146664</v>
+        <v>144224</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3379226323285642</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.287773857157437</v>
+        <v>0.2885961523215165</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3882452055760506</v>
+        <v>0.3817855706928734</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>225</v>
@@ -7391,19 +7391,19 @@
         <v>235983</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>210945</v>
+        <v>211628</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>261789</v>
+        <v>260014</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3313943571525352</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2962323894951954</v>
+        <v>0.2971926264375536</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3676343115479285</v>
+        <v>0.3651405477224179</v>
       </c>
     </row>
     <row r="26">
@@ -7420,19 +7420,19 @@
         <v>177484</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>157105</v>
+        <v>159537</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>193416</v>
+        <v>195261</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.53086570804941</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4699093944965656</v>
+        <v>0.4771827514031091</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5785186265181413</v>
+        <v>0.584036390961987</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>61</v>
@@ -7441,19 +7441,19 @@
         <v>67603</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>52246</v>
+        <v>52779</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>82702</v>
+        <v>84242</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.178955675649678</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1383047559130324</v>
+        <v>0.1397143213384062</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2189254674464781</v>
+        <v>0.2230023424498374</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>234</v>
@@ -7462,19 +7462,19 @@
         <v>245087</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>219642</v>
+        <v>219673</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>270798</v>
+        <v>271065</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3441788217096269</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3084461586654883</v>
+        <v>0.3084889365117399</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3802852101748411</v>
+        <v>0.380660275109318</v>
       </c>
     </row>
     <row r="27">
@@ -7566,19 +7566,19 @@
         <v>33878</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>24959</v>
+        <v>24860</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>45751</v>
+        <v>44466</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1318219504574797</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09711590437242618</v>
+        <v>0.09673183575609837</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1780202920234323</v>
+        <v>0.1730209572219729</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>188</v>
@@ -7587,19 +7587,19 @@
         <v>247323</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>225666</v>
+        <v>227040</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>270970</v>
+        <v>269754</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6180460997774782</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5639267815156146</v>
+        <v>0.5673612361229214</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6771390579109566</v>
+        <v>0.6741012086683741</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>227</v>
@@ -7608,19 +7608,19 @@
         <v>281201</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>255462</v>
+        <v>255570</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>310507</v>
+        <v>308307</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4278986420528408</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3887328263525554</v>
+        <v>0.3888971645902626</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4724931502221734</v>
+        <v>0.4691454636939946</v>
       </c>
     </row>
     <row r="29">
@@ -7637,19 +7637,19 @@
         <v>126803</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>112855</v>
+        <v>113734</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>141932</v>
+        <v>141392</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4934008678606935</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4391282056861318</v>
+        <v>0.4425500172676468</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5522694019406018</v>
+        <v>0.5501682196564952</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>88</v>
@@ -7658,19 +7658,19 @@
         <v>116272</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>95967</v>
+        <v>96683</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>136331</v>
+        <v>136056</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2905561174161836</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2398156370885488</v>
+        <v>0.2416042884568878</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3406824060657787</v>
+        <v>0.3399958373613978</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>240</v>
@@ -7679,19 +7679,19 @@
         <v>243075</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>217221</v>
+        <v>219230</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>269813</v>
+        <v>269429</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3698825220461349</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3305422082146877</v>
+        <v>0.3335993399335686</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4105703544710228</v>
+        <v>0.4099860495363717</v>
       </c>
     </row>
     <row r="30">
@@ -7708,19 +7708,19 @@
         <v>96317</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>82791</v>
+        <v>81538</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>111750</v>
+        <v>109891</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3747771816818268</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3221452303538307</v>
+        <v>0.3172695781051269</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4348293177743658</v>
+        <v>0.427595000438636</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>25</v>
@@ -7729,19 +7729,19 @@
         <v>36575</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>25317</v>
+        <v>23705</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>53328</v>
+        <v>51452</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.09139778280633828</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.06326491879984168</v>
+        <v>0.05923638528630135</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1332631831049453</v>
+        <v>0.1285749212047454</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>136</v>
@@ -7750,19 +7750,19 @@
         <v>132892</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>112521</v>
+        <v>114970</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>159146</v>
+        <v>157090</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2022188359010244</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1712212195216008</v>
+        <v>0.1749471923869234</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.242169216140124</v>
+        <v>0.2390414870609028</v>
       </c>
     </row>
     <row r="31">
@@ -7854,19 +7854,19 @@
         <v>431508</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>391511</v>
+        <v>392266</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>470454</v>
+        <v>472781</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.127202445806949</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1154119528552291</v>
+        <v>0.1156345300804741</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1386832011436724</v>
+        <v>0.1393691495385752</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1023</v>
@@ -7875,19 +7875,19 @@
         <v>1121931</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1066305</v>
+        <v>1069494</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1175985</v>
+        <v>1179864</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3171075182799169</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3013853089616687</v>
+        <v>0.3022865401995213</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3323857067032592</v>
+        <v>0.33348203961591</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1422</v>
@@ -7896,19 +7896,19 @@
         <v>1553439</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1480823</v>
+        <v>1484724</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1628590</v>
+        <v>1632276</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2241515225702431</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2136735579339487</v>
+        <v>0.2142363841044549</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2349954002686149</v>
+        <v>0.2355271988165837</v>
       </c>
     </row>
     <row r="33">
@@ -7925,19 +7925,19 @@
         <v>953515</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>897164</v>
+        <v>901096</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>1001820</v>
+        <v>1008097</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2810827045943088</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.264471409937839</v>
+        <v>0.2656305543019788</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2953224954053901</v>
+        <v>0.2971728506949187</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>1207</v>
@@ -7946,19 +7946,19 @@
         <v>1262953</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1202943</v>
+        <v>1200876</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>1321628</v>
+        <v>1319418</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.356966624611562</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.3400050317893346</v>
+        <v>0.339420956489785</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.3735508208126688</v>
+        <v>0.372926255721074</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>2138</v>
@@ -7967,19 +7967,19 @@
         <v>2216468</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>2129498</v>
+        <v>2142056</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>2289802</v>
+        <v>2298130</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.3198224596258631</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.3072732512788464</v>
+        <v>0.3090853105615037</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.3304041189038502</v>
+        <v>0.3316058609577559</v>
       </c>
     </row>
     <row r="34">
@@ -7996,19 +7996,19 @@
         <v>2007270</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1953772</v>
+        <v>1945274</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>2068168</v>
+        <v>2065992</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.5917148495987421</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5759444107287379</v>
+        <v>0.573439454879819</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.6096669932340287</v>
+        <v>0.6090254850386954</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1102</v>
@@ -8017,19 +8017,19 @@
         <v>1153130</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1097642</v>
+        <v>1094901</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1208779</v>
+        <v>1213876</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3259258571085211</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3102422836390898</v>
+        <v>0.3094676576424689</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3416546922301981</v>
+        <v>0.3430953251051971</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3001</v>
@@ -8038,19 +8038,19 @@
         <v>3160400</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>3082008</v>
+        <v>3076651</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>3252214</v>
+        <v>3242891</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.4560260178038938</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4447145143967174</v>
+        <v>0.4439416219361253</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4692742991935429</v>
+        <v>0.4679289715026476</v>
       </c>
     </row>
     <row r="35">
@@ -8385,19 +8385,19 @@
         <v>89124</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>63700</v>
+        <v>62296</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>118818</v>
+        <v>116657</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2185516509798416</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.156207911713593</v>
+        <v>0.1527631244316895</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2913688022449475</v>
+        <v>0.2860700140595503</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>64</v>
@@ -8406,19 +8406,19 @@
         <v>118810</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>93990</v>
+        <v>93541</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>143688</v>
+        <v>142918</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.327739867744144</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2592730304564765</v>
+        <v>0.2580367551836139</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3963683444459647</v>
+        <v>0.3942422333082982</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>102</v>
@@ -8427,19 +8427,19 @@
         <v>207933</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>175534</v>
+        <v>173681</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>245430</v>
+        <v>248512</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.269936536406949</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2278761424588458</v>
+        <v>0.2254698922019524</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3186136711789787</v>
+        <v>0.3226155158451395</v>
       </c>
     </row>
     <row r="5">
@@ -8456,19 +8456,19 @@
         <v>114334</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>86221</v>
+        <v>87355</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>143244</v>
+        <v>144197</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2803718191307376</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2114326150259065</v>
+        <v>0.214214818706113</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3512673025607777</v>
+        <v>0.3536037514802942</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>51</v>
@@ -8477,19 +8477,19 @@
         <v>84663</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>64700</v>
+        <v>65545</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>108910</v>
+        <v>106994</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2335458934862027</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1784758959335675</v>
+        <v>0.1808075016525645</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3004315568130783</v>
+        <v>0.2951454265385164</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>102</v>
@@ -8498,19 +8498,19 @@
         <v>198997</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>163674</v>
+        <v>167353</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>237271</v>
+        <v>237481</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2583351479993035</v>
+        <v>0.2583351479993034</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2124796616549826</v>
+        <v>0.2172549934412163</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3080225797181671</v>
+        <v>0.3082943866283729</v>
       </c>
     </row>
     <row r="6">
@@ -8527,19 +8527,19 @@
         <v>204336</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>170459</v>
+        <v>171681</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>234892</v>
+        <v>235646</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.501076529889421</v>
+        <v>0.5010765298894209</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4180028739821786</v>
+        <v>0.4209998277202629</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5760077427213113</v>
+        <v>0.5778573743120917</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>92</v>
@@ -8548,19 +8548,19 @@
         <v>159039</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>131942</v>
+        <v>136774</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>183912</v>
+        <v>189607</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4387142387696532</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.363965005516466</v>
+        <v>0.3772946556794999</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5073257052436287</v>
+        <v>0.5230370860867375</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>175</v>
@@ -8569,19 +8569,19 @@
         <v>363375</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>324480</v>
+        <v>318075</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>402780</v>
+        <v>401321</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4717283155937476</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4212363362316036</v>
+        <v>0.4129210405930596</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5228832406083955</v>
+        <v>0.5209896353073309</v>
       </c>
     </row>
     <row r="7">
@@ -8673,19 +8673,19 @@
         <v>80516</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>62537</v>
+        <v>61102</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>101596</v>
+        <v>101727</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.168836103358175</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1311342301811277</v>
+        <v>0.1281253227683295</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2130381341265541</v>
+        <v>0.2133130338608142</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>107</v>
@@ -8694,19 +8694,19 @@
         <v>112708</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>93431</v>
+        <v>94130</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>135789</v>
+        <v>132761</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.2253700612203461</v>
+        <v>0.2253700612203462</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1868238044801087</v>
+        <v>0.1882211666228287</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2715222186644034</v>
+        <v>0.2654672109516611</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>161</v>
@@ -8715,19 +8715,19 @@
         <v>193225</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>164159</v>
+        <v>165498</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>223713</v>
+        <v>224246</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1977747015275009</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1680249132044147</v>
+        <v>0.1693955478330486</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2289805414400954</v>
+        <v>0.229526876096571</v>
       </c>
     </row>
     <row r="9">
@@ -8744,19 +8744,19 @@
         <v>99828</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>78874</v>
+        <v>78019</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>123635</v>
+        <v>124929</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2093310474502975</v>
+        <v>0.2093310474502974</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1653928267185755</v>
+        <v>0.163598738872518</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2592527490802692</v>
+        <v>0.2619663748359073</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>149</v>
@@ -8765,19 +8765,19 @@
         <v>168429</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>145538</v>
+        <v>148556</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>193938</v>
+        <v>191858</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3367881303613242</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2910153130711597</v>
+        <v>0.2970509877128787</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3877969980645044</v>
+        <v>0.3836365565239653</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>214</v>
@@ -8786,19 +8786,19 @@
         <v>268257</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>234533</v>
+        <v>236277</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>302197</v>
+        <v>299923</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2745737696242692</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2400554116641985</v>
+        <v>0.2418403268915897</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3093129582951362</v>
+        <v>0.3069855157310909</v>
       </c>
     </row>
     <row r="10">
@@ -8815,19 +8815,19 @@
         <v>296546</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>269167</v>
+        <v>268226</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>322237</v>
+        <v>323861</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.6218328491915275</v>
+        <v>0.6218328491915276</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5644207130074199</v>
+        <v>0.5624481229324931</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6757043959001049</v>
+        <v>0.6791096820883796</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>203</v>
@@ -8836,19 +8836,19 @@
         <v>218966</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>195625</v>
+        <v>195102</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>244039</v>
+        <v>241845</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4378418084183296</v>
+        <v>0.4378418084183297</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3911685876356106</v>
+        <v>0.3901236936736026</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4879770223077037</v>
+        <v>0.4835905914731691</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>386</v>
@@ -8857,19 +8857,19 @@
         <v>515512</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>480120</v>
+        <v>478301</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>554224</v>
+        <v>551887</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.52765152884823</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4914261032284096</v>
+        <v>0.4895640221160687</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5672745227754279</v>
+        <v>0.5648822754542305</v>
       </c>
     </row>
     <row r="11">
@@ -8961,19 +8961,19 @@
         <v>110471</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>90928</v>
+        <v>90434</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>130355</v>
+        <v>131921</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.178277586252018</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1467383212413447</v>
+        <v>0.1459416084010623</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2103656539255937</v>
+        <v>0.2128929596809115</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>231</v>
@@ -8982,19 +8982,19 @@
         <v>161419</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>144494</v>
+        <v>143942</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>180969</v>
+        <v>179842</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.260137866818363</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2328609835330963</v>
+        <v>0.2319721685428663</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2916434680743364</v>
+        <v>0.2898275058731982</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>333</v>
@@ -9003,19 +9003,19 @@
         <v>271891</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>247243</v>
+        <v>246548</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>301390</v>
+        <v>303515</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2192359493447142</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1993613314955236</v>
+        <v>0.1988009339979991</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2430228189361404</v>
+        <v>0.2447358794963812</v>
       </c>
     </row>
     <row r="13">
@@ -9032,19 +9032,19 @@
         <v>129221</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>107877</v>
+        <v>111235</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>153516</v>
+        <v>150563</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2085359743643408</v>
+        <v>0.2085359743643407</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1740911607088513</v>
+        <v>0.1795095760995304</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2477421015031173</v>
+        <v>0.2429779034194895</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>278</v>
@@ -9053,19 +9053,19 @@
         <v>210207</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>190085</v>
+        <v>190256</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>230920</v>
+        <v>229791</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3387634295130139</v>
+        <v>0.3387634295130138</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3063354199858451</v>
+        <v>0.3066101073495385</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3721429198279569</v>
+        <v>0.3703231272914839</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>393</v>
@@ -9074,19 +9074,19 @@
         <v>339429</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>310316</v>
+        <v>309411</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>370102</v>
+        <v>371182</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.273694600204796</v>
+        <v>0.2736946002047959</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2502199638448062</v>
+        <v>0.2494905901514671</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2984278425482195</v>
+        <v>0.2992988953012047</v>
       </c>
     </row>
     <row r="14">
@@ -9103,19 +9103,19 @@
         <v>379966</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>354535</v>
+        <v>354356</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>407440</v>
+        <v>403954</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6131864393836415</v>
+        <v>0.6131864393836413</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5721455868708166</v>
+        <v>0.5718563045071967</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6575233225683236</v>
+        <v>0.6518973595247769</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>335</v>
@@ -9124,19 +9124,19 @@
         <v>248887</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>229544</v>
+        <v>224824</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>270592</v>
+        <v>267512</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4010987036686232</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3699257991234494</v>
+        <v>0.3623192310598916</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.436077486880376</v>
+        <v>0.4311129949609065</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>663</v>
@@ -9145,19 +9145,19 @@
         <v>628854</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>595592</v>
+        <v>593751</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>661331</v>
+        <v>663258</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5070694504504898</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4802494305071038</v>
+        <v>0.4787646629955926</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5332570564210948</v>
+        <v>0.5348112261909493</v>
       </c>
     </row>
     <row r="15">
@@ -9249,19 +9249,19 @@
         <v>116593</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>97535</v>
+        <v>97186</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>139083</v>
+        <v>136727</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1674579264378007</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1400865623478564</v>
+        <v>0.139584533649217</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1997605868187139</v>
+        <v>0.196375795771816</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>320</v>
@@ -9270,19 +9270,19 @@
         <v>199893</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>181083</v>
+        <v>181443</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>220316</v>
+        <v>218875</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2715256613344977</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2459755736703303</v>
+        <v>0.2464643710199602</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2992679558585853</v>
+        <v>0.2973098005736713</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>438</v>
@@ -9291,19 +9291,19 @@
         <v>316485</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>291418</v>
+        <v>288812</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>348817</v>
+        <v>345204</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.220942404504423</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.203442258300326</v>
+        <v>0.2016233186402462</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2435134282398713</v>
+        <v>0.2409913225200943</v>
       </c>
     </row>
     <row r="17">
@@ -9320,19 +9320,19 @@
         <v>167097</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>144822</v>
+        <v>143514</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>190744</v>
+        <v>189462</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2399952592381879</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2080034682865785</v>
+        <v>0.2061235909400696</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.273959395187217</v>
+        <v>0.2721177457663354</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>364</v>
@@ -9341,19 +9341,19 @@
         <v>236008</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>216098</v>
+        <v>215852</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>255556</v>
+        <v>254914</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3205823303927332</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.293538662761734</v>
+        <v>0.2932032769670355</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3471356607761034</v>
+        <v>0.3462639693288419</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>518</v>
@@ -9362,19 +9362,19 @@
         <v>403104</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>372507</v>
+        <v>373153</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>437465</v>
+        <v>435668</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2814121061014073</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2600514315043038</v>
+        <v>0.2605028648760085</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3053995936110683</v>
+        <v>0.3041450916704137</v>
       </c>
     </row>
     <row r="18">
@@ -9391,19 +9391,19 @@
         <v>412561</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>387403</v>
+        <v>386231</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>438058</v>
+        <v>442183</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5925468143240114</v>
+        <v>0.5925468143240116</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5564143196082881</v>
+        <v>0.5547300845785688</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6291681072795816</v>
+        <v>0.6350921095491087</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>456</v>
@@ -9412,19 +9412,19 @@
         <v>300284</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>279520</v>
+        <v>278067</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>321877</v>
+        <v>322456</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4078920082727692</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3796871569735978</v>
+        <v>0.3777140027781368</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4372231406149882</v>
+        <v>0.4380096591662781</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>845</v>
@@ -9433,19 +9433,19 @@
         <v>712844</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>676063</v>
+        <v>677417</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>744827</v>
+        <v>748840</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4976454893941698</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.471967728160716</v>
+        <v>0.4729129745234781</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5199728060007968</v>
+        <v>0.5227746502084802</v>
       </c>
     </row>
     <row r="19">
@@ -9537,19 +9537,19 @@
         <v>100534</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>81905</v>
+        <v>83360</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>119300</v>
+        <v>118649</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1652800620747319</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1346532045908757</v>
+        <v>0.1370462233165078</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1961317230996268</v>
+        <v>0.1950612901153143</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>322</v>
@@ -9558,19 +9558,19 @@
         <v>187510</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>170515</v>
+        <v>168652</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>204454</v>
+        <v>204236</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.3090318887583196</v>
+        <v>0.3090318887583194</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2810218942268862</v>
+        <v>0.2779511234804997</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3369565383194854</v>
+        <v>0.336596421992885</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>434</v>
@@ -9579,19 +9579,19 @@
         <v>288044</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>264151</v>
+        <v>263292</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>316194</v>
+        <v>313653</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2370673924073158</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2174021689939229</v>
+        <v>0.216695829555906</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2602355072599596</v>
+        <v>0.2581440408292395</v>
       </c>
     </row>
     <row r="21">
@@ -9608,19 +9608,19 @@
         <v>162172</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>142108</v>
+        <v>142145</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>183500</v>
+        <v>185785</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.266614348201614</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2336291643925165</v>
+        <v>0.2336899181053228</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3016772144124253</v>
+        <v>0.3054342734139544</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>339</v>
@@ -9629,19 +9629,19 @@
         <v>207875</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>188738</v>
+        <v>191075</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>225598</v>
+        <v>228002</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3425937104239065</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3110556916805898</v>
+        <v>0.3149063595410349</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3718034342518227</v>
+        <v>0.3757658351114462</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>516</v>
@@ -9650,19 +9650,19 @@
         <v>370047</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>342071</v>
+        <v>342061</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>398440</v>
+        <v>397596</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3045572091735051</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2815328945275372</v>
+        <v>0.2815239049347931</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3279254081853383</v>
+        <v>0.3272312663036581</v>
       </c>
     </row>
     <row r="22">
@@ -9679,19 +9679,19 @@
         <v>345559</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>320278</v>
+        <v>321136</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>367556</v>
+        <v>366068</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.5681055897236541</v>
+        <v>0.568105589723654</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5265431046570054</v>
+        <v>0.5279539002373892</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6042696222336488</v>
+        <v>0.6018237685809991</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>338</v>
@@ -9700,19 +9700,19 @@
         <v>211382</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>192999</v>
+        <v>194142</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>229418</v>
+        <v>231179</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.348374400817774</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3180770760649648</v>
+        <v>0.3199609072217129</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.37809922578237</v>
+        <v>0.3810011892838235</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>711</v>
@@ -9721,19 +9721,19 @@
         <v>556941</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>526321</v>
+        <v>524457</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>586583</v>
+        <v>586137</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.4583753984191791</v>
+        <v>0.458375398419179</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4331749720278448</v>
+        <v>0.431640241140706</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4827716056348076</v>
+        <v>0.4824049673120961</v>
       </c>
     </row>
     <row r="23">
@@ -9825,19 +9825,19 @@
         <v>66173</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>55340</v>
+        <v>55105</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>80103</v>
+        <v>80320</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1629247576923537</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1362526936953062</v>
+        <v>0.1356756361903607</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1972232884796246</v>
+        <v>0.1977566819779938</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>345</v>
@@ -9846,19 +9846,19 @@
         <v>175925</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>162623</v>
+        <v>162200</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>191973</v>
+        <v>190333</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4012080428249432</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3708724473077328</v>
+        <v>0.3699077964439975</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.437807721239616</v>
+        <v>0.4340685792654246</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>439</v>
@@ -9867,19 +9867,19 @@
         <v>242097</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>222397</v>
+        <v>220125</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>263870</v>
+        <v>262433</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.2866271873639633</v>
+        <v>0.2866271873639632</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2633035670892649</v>
+        <v>0.2606142608519506</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.312405456198325</v>
+        <v>0.3107031101397048</v>
       </c>
     </row>
     <row r="25">
@@ -9896,19 +9896,19 @@
         <v>103801</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>90531</v>
+        <v>89281</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>119186</v>
+        <v>118539</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2555715580170838</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.222897998482482</v>
+        <v>0.2198211555470997</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2934506356348967</v>
+        <v>0.2918560973875348</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>272</v>
@@ -9917,19 +9917,19 @@
         <v>148025</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>132593</v>
+        <v>134547</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>163389</v>
+        <v>161435</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3375813033650877</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3023868690036214</v>
+        <v>0.3068442448572378</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3726208070747694</v>
+        <v>0.3681645158144383</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>421</v>
@@ -9938,19 +9938,19 @@
         <v>251826</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>232234</v>
+        <v>231686</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>273086</v>
+        <v>272144</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.2981461127142508</v>
+        <v>0.2981461127142507</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.27495000128531</v>
+        <v>0.274300688704726</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3233157567917973</v>
+        <v>0.322201095395561</v>
       </c>
     </row>
     <row r="26">
@@ -9967,19 +9967,19 @@
         <v>236180</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>218877</v>
+        <v>218734</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>251433</v>
+        <v>252581</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5815036842905625</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5389021827795913</v>
+        <v>0.5385502162357698</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6190587223207386</v>
+        <v>0.6218839449229908</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>209</v>
@@ -9988,19 +9988,19 @@
         <v>114537</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>101448</v>
+        <v>101105</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>128574</v>
+        <v>128308</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.261210653809969</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2313598774881247</v>
+        <v>0.230578037017571</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2932207991982365</v>
+        <v>0.2926151651365609</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>535</v>
@@ -10009,19 +10009,19 @@
         <v>350717</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>326454</v>
+        <v>327501</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>372134</v>
+        <v>372052</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.415226699921786</v>
+        <v>0.4152266999217861</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.386500282380897</v>
+        <v>0.3877395377692645</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4405819936044758</v>
+        <v>0.4404855928960589</v>
       </c>
     </row>
     <row r="27">
@@ -10113,19 +10113,19 @@
         <v>57325</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>46553</v>
+        <v>47110</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>69260</v>
+        <v>70102</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1848006685514057</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1500741464905124</v>
+        <v>0.1518716922141448</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2232762365770231</v>
+        <v>0.2259920588168338</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>456</v>
@@ -10134,19 +10134,19 @@
         <v>230199</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>212651</v>
+        <v>215151</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>245410</v>
+        <v>247067</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4979306506605439</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4599728817789324</v>
+        <v>0.4653804705706004</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5308340639781555</v>
+        <v>0.5344179892728613</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>543</v>
@@ -10155,19 +10155,19 @@
         <v>287524</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>266732</v>
+        <v>268667</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>307345</v>
+        <v>309736</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.3721944766597089</v>
+        <v>0.3721944766597088</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3452790800762047</v>
+        <v>0.3477842328995595</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.397853091188343</v>
+        <v>0.4009473165418637</v>
       </c>
     </row>
     <row r="29">
@@ -10184,19 +10184,19 @@
         <v>118158</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>104919</v>
+        <v>103230</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>132323</v>
+        <v>131719</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3809109325600939</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3382337450053511</v>
+        <v>0.3327883786365617</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4265763716947265</v>
+        <v>0.4246298475651192</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>330</v>
@@ -10205,19 +10205,19 @@
         <v>178981</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>163817</v>
+        <v>162701</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>195787</v>
+        <v>194854</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.3871440389258592</v>
+        <v>0.3871440389258591</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3543426974616036</v>
+        <v>0.3519292019372307</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4234961432774851</v>
+        <v>0.4214782697878061</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>502</v>
@@ -10226,19 +10226,19 @@
         <v>297139</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>276911</v>
+        <v>277744</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>320876</v>
+        <v>317115</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3846411583607575</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3584560512299659</v>
+        <v>0.3595345984314749</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4153684073997591</v>
+        <v>0.4104989017869534</v>
       </c>
     </row>
     <row r="30">
@@ -10255,19 +10255,19 @@
         <v>134715</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>119181</v>
+        <v>119939</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>147931</v>
+        <v>149582</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.4342883988885002</v>
+        <v>0.4342883988885003</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3842085132100144</v>
+        <v>0.3866524713931672</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4768909695641718</v>
+        <v>0.4822135006438638</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>92</v>
@@ -10276,19 +10276,19 @@
         <v>53131</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>43287</v>
+        <v>43182</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>64260</v>
+        <v>64272</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1149253104135969</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.09363260629045157</v>
+        <v>0.09340438386466343</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1389980564201911</v>
+        <v>0.1390242299145926</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>291</v>
@@ -10297,19 +10297,19 @@
         <v>187847</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>168899</v>
+        <v>169471</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>207882</v>
+        <v>207462</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2431643649795335</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2186360430046101</v>
+        <v>0.2193769839583053</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2690994965478888</v>
+        <v>0.2685558051120396</v>
       </c>
     </row>
     <row r="31">
@@ -10401,19 +10401,19 @@
         <v>620735</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>570483</v>
+        <v>569131</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>669629</v>
+        <v>673675</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1760847114007972</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.161829647124162</v>
+        <v>0.1614461578372334</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1899544873213449</v>
+        <v>0.1911022542583818</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1845</v>
@@ -10422,19 +10422,19 @@
         <v>1186464</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1139343</v>
+        <v>1135361</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1237041</v>
+        <v>1233085</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3183532230944283</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3057096349695195</v>
+        <v>0.304641200187052</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3319240739077826</v>
+        <v>0.3308625014123517</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2450</v>
@@ -10443,19 +10443,19 @@
         <v>1807199</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1741886</v>
+        <v>1740185</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1886694</v>
+        <v>1874859</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.2491971029518278</v>
+        <v>0.2491971029518277</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2401909293445659</v>
+        <v>0.2399563470968033</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2601586911643961</v>
+        <v>0.2585268153710837</v>
       </c>
     </row>
     <row r="33">
@@ -10472,19 +10472,19 @@
         <v>894611</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>839438</v>
+        <v>841355</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>954306</v>
+        <v>954209</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2537752739243201</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2381242096081128</v>
+        <v>0.2386679920388169</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2707091486835022</v>
+        <v>0.2706814203720839</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>1783</v>
@@ -10493,19 +10493,19 @@
         <v>1234188</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1182292</v>
+        <v>1189799</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>1290944</v>
+        <v>1288692</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.3311585460608381</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.3172337411184025</v>
+        <v>0.3192480411351775</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.3463873262657443</v>
+        <v>0.3457830299432084</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>2666</v>
@@ -10514,19 +10514,19 @@
         <v>2128799</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>2058683</v>
+        <v>2046622</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>2212881</v>
+        <v>2202774</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2935428656745495</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.2838745513367951</v>
+        <v>0.2822113840015082</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.3051370951522325</v>
+        <v>0.3037433721978933</v>
       </c>
     </row>
     <row r="34">
@@ -10543,19 +10543,19 @@
         <v>2009863</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1943458</v>
+        <v>1944116</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>2072626</v>
+        <v>2078262</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.5701400146748827</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5513029525160253</v>
+        <v>0.5514895018504656</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5879442276979255</v>
+        <v>0.5895430519135003</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1725</v>
@@ -10564,19 +10564,19 @@
         <v>1306227</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1251060</v>
+        <v>1257168</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1363811</v>
+        <v>1359236</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3504882308447337</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3356856257961684</v>
+        <v>0.3373246075142552</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3659391402411011</v>
+        <v>0.3647115943756659</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3606</v>
@@ -10585,19 +10585,19 @@
         <v>3316090</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>3226119</v>
+        <v>3221856</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>3400837</v>
+        <v>3403456</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.4572600313736226</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4448538803042219</v>
+        <v>0.444265964261615</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4689459074201456</v>
+        <v>0.4693071033751439</v>
       </c>
     </row>
     <row r="35">
